--- a/data/grant/users.xlsx
+++ b/data/grant/users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Abad Bajuri</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t xml:space="preserve">kindi@cantikmart.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roni Romadoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roniromadoni@cantikmart.com</t>
   </si>
 </sst>
 </file>
@@ -366,13 +372,13 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.28"/>
@@ -808,7 +814,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>999</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
@@ -825,7 +831,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>9999</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>52</v>
@@ -837,6 +843,23 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -870,6 +893,7 @@
     <hyperlink ref="C25" r:id="rId25" display="asepdadang@cantikmart.com"/>
     <hyperlink ref="C26" r:id="rId26" display="syifa@cantikmart.com"/>
     <hyperlink ref="C27" r:id="rId27" display="kindi@cantikmart.com"/>
+    <hyperlink ref="C28" r:id="rId28" display="roniromadoni@cantikmart.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
